--- a/target/test-classes/data/data.xlsx
+++ b/target/test-classes/data/data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="371">
   <si>
     <t>Description</t>
   </si>
@@ -1140,6 +1140,12 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>TC_DN4</t>
+  </si>
+  <si>
+    <t>20102003</t>
   </si>
 </sst>
 </file>
@@ -2993,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3043,6 +3049,23 @@
         <v>367</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
